--- a/Cafiem/2017_2018/Ekonomi/kund_faktura/FakturaBeräkning.xlsx
+++ b/Cafiem/2017_2018/Ekonomi/kund_faktura/FakturaBeräkning.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Arvode vecka vecka 5</t>
   </si>
@@ -40,14 +40,34 @@
   </si>
   <si>
     <t>Avgår</t>
+  </si>
+  <si>
+    <t>Arvode vecka vecka 10</t>
+  </si>
+  <si>
+    <t>Arvode vecka vecka 11</t>
+  </si>
+  <si>
+    <t>Arvode vecka vecka 12</t>
+  </si>
+  <si>
+    <t>Arvode vecka vecka 13</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -75,8 +95,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -378,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G9"/>
+  <dimension ref="B1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -389,7 +410,7 @@
     <col min="2" max="2" width="20.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>5</v>
       </c>
@@ -397,7 +418,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -412,7 +433,7 @@
         <v>15120</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -427,7 +448,7 @@
         <v>37800</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -442,7 +463,7 @@
         <v>37800</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -457,7 +478,7 @@
         <v>37800</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -472,7 +493,7 @@
         <v>22680</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>7</v>
       </c>
@@ -487,7 +508,7 @@
         <v>-22720</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C9">
         <f>SUM(C2:C6)</f>
         <v>160</v>
@@ -497,8 +518,114 @@
         <v>128480</v>
       </c>
     </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>16</v>
+      </c>
+      <c r="E12">
+        <v>945</v>
+      </c>
+      <c r="G12">
+        <f>C12*E12</f>
+        <v>15120</v>
+      </c>
+      <c r="K12">
+        <f>16+16+40+36+24</f>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>16</v>
+      </c>
+      <c r="E13">
+        <v>945</v>
+      </c>
+      <c r="G13">
+        <f t="shared" ref="G13:G17" si="1">C13*E13</f>
+        <v>15120</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>40</v>
+      </c>
+      <c r="E14">
+        <v>945</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>37800</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>36</v>
+      </c>
+      <c r="E15">
+        <v>945</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>34020</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>945</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>22680</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="1">
+        <f>SUM(C12:C16)</f>
+        <v>132</v>
+      </c>
+      <c r="E17">
+        <v>-142</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>-18744</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <f>SUM(C12:C16)</f>
+        <v>132</v>
+      </c>
+      <c r="G19">
+        <f>SUM(G12:G17)</f>
+        <v>105996</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Cafiem/2017_2018/Ekonomi/kund_faktura/FakturaBeräkning.xlsx
+++ b/Cafiem/2017_2018/Ekonomi/kund_faktura/FakturaBeräkning.xlsx
@@ -16,19 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
-  <si>
-    <t>Arvode vecka vecka 5</t>
-  </si>
-  <si>
-    <t>Arvode vecka vecka 6</t>
-  </si>
-  <si>
-    <t>Arvode vecka vecka 7</t>
-  </si>
-  <si>
-    <t>Arvode vecka vecka 8</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Arvode vecka vecka 9</t>
   </si>
@@ -52,6 +40,21 @@
   </si>
   <si>
     <t>Arvode vecka vecka 13</t>
+  </si>
+  <si>
+    <t>Arvode vecka vecka 14</t>
+  </si>
+  <si>
+    <t>Arvode vecka vecka 15</t>
+  </si>
+  <si>
+    <t>Arvode vecka vecka 16</t>
+  </si>
+  <si>
+    <t>Arvode vecka vecka 17</t>
+  </si>
+  <si>
+    <t>Arvode vecka vecka 18</t>
   </si>
 </sst>
 </file>
@@ -399,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K19"/>
+  <dimension ref="B1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -412,30 +415,30 @@
   <sheetData>
     <row r="1" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E2">
         <v>945</v>
       </c>
       <c r="G2">
         <f>C2*E2</f>
-        <v>15120</v>
+        <v>30240</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>40</v>
@@ -450,7 +453,7 @@
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>40</v>
@@ -465,7 +468,7 @@
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>40</v>
@@ -480,28 +483,29 @@
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C6">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E6">
         <v>945</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>22680</v>
+        <v>7560</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>160</v>
+        <f>(SUM(C2:C6))*-1</f>
+        <v>-160</v>
       </c>
       <c r="E7">
-        <v>-142</v>
+        <v>142</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
@@ -520,7 +524,7 @@
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C12">
         <v>16</v>
@@ -539,7 +543,7 @@
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C13">
         <v>16</v>
@@ -554,7 +558,7 @@
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C14">
         <v>40</v>
@@ -569,7 +573,7 @@
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C15">
         <v>36</v>
@@ -584,7 +588,7 @@
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C16">
         <v>24</v>
@@ -599,7 +603,7 @@
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C17" s="1">
         <f>SUM(C12:C16)</f>
@@ -621,6 +625,12 @@
       <c r="G19">
         <f>SUM(G12:G17)</f>
         <v>105996</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C22">
+        <f>132/8</f>
+        <v>16.5</v>
       </c>
     </row>
   </sheetData>
